--- a/package/openpyxl_test/我的数据.xlsx
+++ b/package/openpyxl_test/我的数据.xlsx
@@ -2,28 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38040" yWindow="4920" windowWidth="29240" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="我的数据" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,11 +53,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -137,7 +146,7 @@
     <ext cx="504825" cy="514350"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -147,7 +156,12 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -444,19 +458,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
     <row r="10" ht="90" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
@@ -474,7 +502,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
